--- a/Домашнее задание 3.xlsx
+++ b/Домашнее задание 3.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Денис\OneDrive\Рабочий стол\IT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1BA77B-4428-44EF-AAC3-C99BF9F06B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C808072A-5D41-4E43-A758-59225928F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Данные" sheetId="1" r:id="rId1"/>
+    <sheet name="ДЗ" sheetId="1" r:id="rId1"/>
+    <sheet name="Задание 1" sheetId="6" r:id="rId2"/>
+    <sheet name="Задание 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Задание 3" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -154,7 +159,43 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -165,6 +206,3030 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ДЗ!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ДЗ!$D$6:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8B1-445F-9F90-29517E001933}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1284846895"/>
+        <c:axId val="1284862255"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ДЗ!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ДЗ!$E$6:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0.00\ [$₽-419]_-;\-* #\ ##0.00\ [$₽-419]_-;_-* "-"??\ [$₽-419]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2735900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2210271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3004596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2825548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3576132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3128575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3874198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2665368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2833012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2424844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2549544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3150120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8B1-445F-9F90-29517E001933}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1284842575"/>
+        <c:axId val="1284856495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1284846895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1284862255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1284862255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1284846895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1284856495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="_-* #\ ##0.00\ [$₽-419]_-;\-* #\ ##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1284842575"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1284842575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1284856495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ДЗ!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ДЗ!$E$6:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0.00\ [$₽-419]_-;\-* #\ ##0.00\ [$₽-419]_-;_-* "-"??\ [$₽-419]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2735900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2210271</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3004596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2825548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3576132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3128575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3874198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2665368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2833012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2424844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2549544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3150120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF22-4948-807A-BBD5F47DBE01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1284837295"/>
+        <c:axId val="1284833935"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1284837295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1284833935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1284833935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_-* #\ ##0.00\ [$₽-419]_-;\-* #\ ##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1284837295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ДЗ!$C$6:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ДЗ!$D$6:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD01-4006-923F-9452A3C87293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1284843055"/>
+        <c:axId val="1284861775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1284843055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1284861775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1284861775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1284843055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F1014952-1EA9-4A77-BD83-248878E4E019}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6134A3F2-ED9B-4DA2-B54E-61896FA655C9}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{867F17D9-511D-4BAF-A27C-D6673D0370CA}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9289143" cy="6068786"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9647CB-569C-3145-2661-D550AC859297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9289143" cy="6068786"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3570C00-2ECA-81DB-DA36-80CE938CEC7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9289143" cy="6068786"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9129CA74-90AC-792F-B05C-F7309B24BD43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,7 +3498,7 @@
   <dimension ref="C5:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,6 +3506,7 @@
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
@@ -588,6 +3654,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E6:E17">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>MAX($E$6:$E$17)=$E6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MIN($E$6:$E$17)=$E6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>